--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128918.3543603385</v>
+        <v>-131407.2271710723</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344.2204013002516</v>
+        <v>344.2204013002517</v>
       </c>
       <c r="C11" t="n">
-        <v>326.7594514077786</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>316.169601257454</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>343.4169297090328</v>
+        <v>240.0306626659835</v>
       </c>
       <c r="F11" t="n">
-        <v>368.3626053784825</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>372.6330561788417</v>
+        <v>372.6330561788418</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>258.3962588871428</v>
       </c>
       <c r="I11" t="n">
-        <v>11.72896909311296</v>
+        <v>11.72896909311291</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>75.7962880493121</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>166.3884643413132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>212.4997132667625</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>289.238818106906</v>
       </c>
       <c r="W11" t="n">
-        <v>198.3691459188564</v>
+        <v>310.7275283541841</v>
       </c>
       <c r="X11" t="n">
-        <v>331.2176603152401</v>
+        <v>331.2176603152402</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.7244982928246</v>
+        <v>347.7244982928247</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128.0197432866384</v>
+        <v>146.0471865523403</v>
       </c>
       <c r="C12" t="n">
-        <v>134.1950586250868</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>142.5146551991187</v>
+        <v>108.9316252014099</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>106.555772030155</v>
       </c>
       <c r="G12" t="n">
         <v>135.1197321935187</v>
       </c>
       <c r="H12" t="n">
-        <v>90.75836308184009</v>
+        <v>52.24492271861119</v>
       </c>
       <c r="I12" t="n">
-        <v>22.95785363122049</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.60976698607314</v>
+        <v>7.609766986073055</v>
       </c>
       <c r="S12" t="n">
         <v>130.377340636095</v>
@@ -1503,19 +1503,19 @@
         <v>191.2013147161072</v>
       </c>
       <c r="U12" t="n">
-        <v>187.281640075003</v>
+        <v>225.7950804382319</v>
       </c>
       <c r="V12" t="n">
-        <v>194.2871467861964</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>213.1815427976907</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>167.1692554140755</v>
       </c>
     </row>
     <row r="13">
@@ -1528,25 +1528,25 @@
         <v>141.3185398187084</v>
       </c>
       <c r="C13" t="n">
-        <v>128.7333807353989</v>
+        <v>128.733380735399</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.1020326549835</v>
       </c>
       <c r="E13" t="n">
         <v>107.9205222833403</v>
       </c>
       <c r="F13" t="n">
-        <v>106.9076076597023</v>
+        <v>92.07544932296574</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.39882710340851</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.87104721483902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>181.4663044295872</v>
       </c>
       <c r="U13" t="n">
-        <v>247.7038973596177</v>
+        <v>247.7038973596178</v>
       </c>
       <c r="V13" t="n">
         <v>213.6242029605991</v>
@@ -1591,7 +1591,7 @@
         <v>248.0095579733621</v>
       </c>
       <c r="X13" t="n">
-        <v>187.1962150258082</v>
+        <v>187.1962150258083</v>
       </c>
       <c r="Y13" t="n">
         <v>180.0712129888659</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>344.2204013002517</v>
       </c>
       <c r="C14" t="n">
-        <v>326.7594514077786</v>
+        <v>326.7594514077787</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>343.4169297090328</v>
+        <v>260.9957095510299</v>
       </c>
       <c r="F14" t="n">
-        <v>1.599939991849133</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>372.6330561788417</v>
+        <v>372.6330561788418</v>
       </c>
       <c r="H14" t="n">
         <v>258.3962588871428</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>11.72896909311292</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>75.79628804931214</v>
       </c>
       <c r="T14" t="n">
         <v>166.3884643413132</v>
       </c>
       <c r="U14" t="n">
-        <v>212.4997132667624</v>
+        <v>212.4997132667625</v>
       </c>
       <c r="V14" t="n">
         <v>289.238818106906</v>
@@ -1670,10 +1670,10 @@
         <v>310.7275283541841</v>
       </c>
       <c r="X14" t="n">
-        <v>331.2176603152401</v>
+        <v>331.2176603152402</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.7244982928246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,22 +1686,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>152.2225018907878</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>119.131640092172</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>106.555772030155</v>
       </c>
       <c r="G15" t="n">
-        <v>135.1197321935187</v>
+        <v>96.60629183028981</v>
       </c>
       <c r="H15" t="n">
-        <v>52.24492271861116</v>
+        <v>52.24492271861119</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>130.377340636095</v>
       </c>
       <c r="T15" t="n">
-        <v>170.7153176185797</v>
+        <v>191.2013147161072</v>
       </c>
       <c r="U15" t="n">
         <v>225.7950804382319</v>
@@ -1746,13 +1746,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>213.1815427976907</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>167.2595448402486</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>167.1692554140755</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1765,10 +1765,10 @@
         <v>141.3185398187084</v>
       </c>
       <c r="C16" t="n">
-        <v>128.7333807353989</v>
+        <v>128.733380735399</v>
       </c>
       <c r="D16" t="n">
-        <v>13.6932423846917</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>107.9205222833403</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>127.6131923784188</v>
+        <v>34.16843890291002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>107.1379958601998</v>
       </c>
       <c r="I16" t="n">
-        <v>60.87104721483902</v>
+        <v>60.87104721483904</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.95214767987304</v>
+        <v>54.95214767987306</v>
       </c>
       <c r="S16" t="n">
         <v>153.0126807244091</v>
@@ -1819,7 +1819,7 @@
         <v>181.4663044295872</v>
       </c>
       <c r="U16" t="n">
-        <v>247.7038973596177</v>
+        <v>247.7038973596178</v>
       </c>
       <c r="V16" t="n">
         <v>213.6242029605991</v>
@@ -1828,7 +1828,7 @@
         <v>248.0095579733621</v>
       </c>
       <c r="X16" t="n">
-        <v>187.1962150258082</v>
+        <v>187.1962150258083</v>
       </c>
       <c r="Y16" t="n">
         <v>180.0712129888659</v>
@@ -1853,10 +1853,10 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F17" t="n">
-        <v>34.6402876282195</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G17" t="n">
-        <v>313.4617763139657</v>
+        <v>38.91073842858015</v>
       </c>
       <c r="H17" t="n">
         <v>199.2249790222668</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>16.62500818443604</v>
+        <v>16.62500818443608</v>
       </c>
       <c r="T17" t="n">
         <v>107.2171844764371</v>
@@ -1901,13 +1901,13 @@
         <v>153.3284334018864</v>
       </c>
       <c r="V17" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W17" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X17" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y17" t="n">
         <v>288.5532184279487</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>89.67814532752978</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>75.02377876021079</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1938,10 +1938,10 @@
         <v>135.1197321935187</v>
       </c>
       <c r="H18" t="n">
-        <v>90.75836308184009</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>22.95785363122047</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.609766986073055</v>
+        <v>7.609766986073083</v>
       </c>
       <c r="S18" t="n">
         <v>130.377340636095</v>
@@ -1986,10 +1986,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>196.7184563317585</v>
       </c>
       <c r="Y18" t="n">
-        <v>107.9979755491994</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G19" t="n">
-        <v>68.44191251354275</v>
+        <v>68.44191251354276</v>
       </c>
       <c r="H19" t="n">
-        <v>47.96671599532367</v>
+        <v>47.96671599532368</v>
       </c>
       <c r="I19" t="n">
-        <v>1.699767349962947</v>
+        <v>1.699767349962976</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>93.841400859533</v>
+        <v>93.84140085953301</v>
       </c>
       <c r="T19" t="n">
         <v>122.2950245647112</v>
@@ -2059,10 +2059,10 @@
         <v>188.5326174947417</v>
       </c>
       <c r="V19" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W19" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X19" t="n">
         <v>128.0249351609322</v>
@@ -2090,10 +2090,10 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136064</v>
+        <v>34.64028762822045</v>
       </c>
       <c r="G20" t="n">
-        <v>38.9107384285816</v>
+        <v>313.4617763139657</v>
       </c>
       <c r="H20" t="n">
         <v>199.2249790222668</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>16.62500818443607</v>
+        <v>16.62500818443608</v>
       </c>
       <c r="T20" t="n">
         <v>107.2171844764371</v>
@@ -2138,13 +2138,13 @@
         <v>153.3284334018864</v>
       </c>
       <c r="V20" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W20" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X20" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y20" t="n">
         <v>288.5532184279487</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>68.84846342176239</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>95.85346066597729</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2172,7 +2172,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>37.43501196541373</v>
+        <v>135.1197321935187</v>
       </c>
       <c r="H21" t="n">
         <v>90.75836308184009</v>
@@ -2211,7 +2211,7 @@
         <v>130.377340636095</v>
       </c>
       <c r="T21" t="n">
-        <v>114.3462763937689</v>
+        <v>191.2013147161072</v>
       </c>
       <c r="U21" t="n">
         <v>225.7950804382319</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G22" t="n">
-        <v>68.44191251354275</v>
+        <v>68.44191251354276</v>
       </c>
       <c r="H22" t="n">
-        <v>47.96671599532367</v>
+        <v>47.96671599532368</v>
       </c>
       <c r="I22" t="n">
-        <v>1.699767349962961</v>
+        <v>1.699767349962976</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>93.841400859533</v>
+        <v>93.84140085953301</v>
       </c>
       <c r="T22" t="n">
         <v>122.2950245647112</v>
@@ -2296,10 +2296,10 @@
         <v>188.5326174947417</v>
       </c>
       <c r="V22" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W22" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X22" t="n">
         <v>128.0249351609322</v>
@@ -2327,7 +2327,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G23" t="n">
         <v>313.2370054253485</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T23" t="n">
         <v>106.2332499115152</v>
@@ -2375,13 +2375,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V23" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W23" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X23" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y23" t="n">
         <v>288.5532184279487</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U25" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V25" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W25" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X25" t="n">
         <v>128.0249351609322</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>323.5625617986046</v>
+        <v>323.5625617986045</v>
       </c>
       <c r="C29" t="n">
-        <v>306.1016119061316</v>
+        <v>306.1016119061315</v>
       </c>
       <c r="D29" t="n">
-        <v>295.511761755807</v>
+        <v>295.5117617558069</v>
       </c>
       <c r="E29" t="n">
-        <v>322.7590902073858</v>
+        <v>322.7590902073857</v>
       </c>
       <c r="F29" t="n">
         <v>347.7047658768354</v>
       </c>
       <c r="G29" t="n">
-        <v>351.7504457885775</v>
+        <v>351.7504457885774</v>
       </c>
       <c r="H29" t="n">
-        <v>235.4364845224445</v>
+        <v>235.4364845224444</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.01648192329984</v>
+        <v>50.01648192329972</v>
       </c>
       <c r="T29" t="n">
         <v>144.7466902747441</v>
       </c>
       <c r="U29" t="n">
-        <v>191.823892094026</v>
+        <v>191.8238920940259</v>
       </c>
       <c r="V29" t="n">
-        <v>268.5809786052589</v>
+        <v>268.5809786052588</v>
       </c>
       <c r="W29" t="n">
         <v>290.069688852537</v>
@@ -2858,7 +2858,7 @@
         <v>310.559820813593</v>
       </c>
       <c r="Y29" t="n">
-        <v>327.0666587911776</v>
+        <v>327.0666587911775</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.6607003170613</v>
+        <v>120.6607003170612</v>
       </c>
       <c r="C31" t="n">
-        <v>108.0755412337518</v>
+        <v>108.0755412337517</v>
       </c>
       <c r="D31" t="n">
-        <v>89.44419315333636</v>
+        <v>89.44419315333627</v>
       </c>
       <c r="E31" t="n">
-        <v>87.26268278169317</v>
+        <v>87.26268278169309</v>
       </c>
       <c r="F31" t="n">
-        <v>86.24976815805525</v>
+        <v>86.24976815805516</v>
       </c>
       <c r="G31" t="n">
-        <v>106.8545283941522</v>
+        <v>106.8545283941521</v>
       </c>
       <c r="H31" t="n">
-        <v>85.58373504944478</v>
+        <v>85.5837350494447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.1811405449621</v>
+        <v>37.181140544962</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>29.76087280517133</v>
+        <v>29.76087280517123</v>
       </c>
       <c r="S31" t="n">
-        <v>130.5977454665659</v>
+        <v>130.5977454665658</v>
       </c>
       <c r="T31" t="n">
-        <v>160.3776694112932</v>
+        <v>160.3776694112931</v>
       </c>
       <c r="U31" t="n">
-        <v>227.0405583407369</v>
+        <v>227.0405583407368</v>
       </c>
       <c r="V31" t="n">
-        <v>192.966363458952</v>
+        <v>192.9663634589519</v>
       </c>
       <c r="W31" t="n">
-        <v>227.351718471715</v>
+        <v>227.3517184717149</v>
       </c>
       <c r="X31" t="n">
-        <v>166.5383755241612</v>
+        <v>166.5383755241611</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.4133734872188</v>
+        <v>159.4133734872187</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>322.7590902073858</v>
       </c>
       <c r="F32" t="n">
-        <v>347.7047658768355</v>
+        <v>347.7047658768354</v>
       </c>
       <c r="G32" t="n">
         <v>351.7504457885775</v>
@@ -3089,10 +3089,10 @@
         <v>268.5809786052589</v>
       </c>
       <c r="W32" t="n">
-        <v>290.0696888525371</v>
+        <v>290.069688852537</v>
       </c>
       <c r="X32" t="n">
-        <v>310.5598208135931</v>
+        <v>310.559820813593</v>
       </c>
       <c r="Y32" t="n">
         <v>327.0666587911776</v>
@@ -3159,7 +3159,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U33" t="n">
         <v>225.7871683969286</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3357,7 +3357,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
         <v>89.59687541851115</v>
@@ -3405,7 +3405,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092334</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,10 +3724,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3825,7 +3825,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
         <v>154.4529230957231</v>
@@ -3961,10 +3961,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1817.667745971188</v>
+        <v>952.7367700119738</v>
       </c>
       <c r="C11" t="n">
-        <v>1487.607694044139</v>
+        <v>952.7367700119738</v>
       </c>
       <c r="D11" t="n">
-        <v>1168.244460450751</v>
+        <v>952.7367700119738</v>
       </c>
       <c r="E11" t="n">
-        <v>821.358672865869</v>
+        <v>710.281555197849</v>
       </c>
       <c r="F11" t="n">
-        <v>449.275233089624</v>
+        <v>710.281555197849</v>
       </c>
       <c r="G11" t="n">
-        <v>72.87820664634943</v>
+        <v>333.8845287545745</v>
       </c>
       <c r="H11" t="n">
-        <v>72.87820664634943</v>
+        <v>72.8782066463494</v>
       </c>
       <c r="I11" t="n">
-        <v>61.0307631179525</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="J11" t="n">
-        <v>231.0235173512788</v>
+        <v>231.023517351279</v>
       </c>
       <c r="K11" t="n">
-        <v>536.5371081174102</v>
+        <v>536.5371081174109</v>
       </c>
       <c r="L11" t="n">
-        <v>952.4554946804089</v>
+        <v>952.4554946804103</v>
       </c>
       <c r="M11" t="n">
-        <v>1446.914276069382</v>
+        <v>1446.914276069383</v>
       </c>
       <c r="N11" t="n">
-        <v>1953.987725860801</v>
+        <v>1953.987725860803</v>
       </c>
       <c r="O11" t="n">
-        <v>2419.467544341227</v>
+        <v>2419.467544341228</v>
       </c>
       <c r="P11" t="n">
-        <v>2782.242799299104</v>
+        <v>2782.242799299105</v>
       </c>
       <c r="Q11" t="n">
-        <v>3006.499161029604</v>
+        <v>3006.499161029605</v>
       </c>
       <c r="R11" t="n">
-        <v>3051.538155897625</v>
+        <v>3051.538155897626</v>
       </c>
       <c r="S11" t="n">
-        <v>3051.538155897625</v>
+        <v>2974.976248777109</v>
       </c>
       <c r="T11" t="n">
-        <v>3051.538155897625</v>
+        <v>2806.907092876793</v>
       </c>
       <c r="U11" t="n">
-        <v>3051.538155897625</v>
+        <v>2592.260917859861</v>
       </c>
       <c r="V11" t="n">
-        <v>3051.538155897625</v>
+        <v>2300.100495529653</v>
       </c>
       <c r="W11" t="n">
-        <v>2851.165281232114</v>
+        <v>1986.234305272901</v>
       </c>
       <c r="X11" t="n">
-        <v>2516.601987984396</v>
+        <v>1651.671012025184</v>
       </c>
       <c r="Y11" t="n">
-        <v>2165.365121021947</v>
+        <v>1300.434145062733</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>897.6569808750935</v>
+        <v>801.6425121961458</v>
       </c>
       <c r="C12" t="n">
-        <v>762.106416607329</v>
+        <v>627.1894829150189</v>
       </c>
       <c r="D12" t="n">
-        <v>618.152219436502</v>
+        <v>517.1575382671301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9147644310466</v>
+        <v>357.9200832616746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3802064579315</v>
+        <v>250.2879903019221</v>
       </c>
       <c r="G12" t="n">
-        <v>175.8956284846803</v>
+        <v>113.8034123286709</v>
       </c>
       <c r="H12" t="n">
-        <v>84.22051426059946</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="I12" t="n">
-        <v>61.0307631179525</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="J12" t="n">
-        <v>143.4594360153768</v>
+        <v>143.4594360153769</v>
       </c>
       <c r="K12" t="n">
-        <v>362.4979917678519</v>
+        <v>362.4979917678522</v>
       </c>
       <c r="L12" t="n">
-        <v>703.3449021689058</v>
+        <v>703.3449021689064</v>
       </c>
       <c r="M12" t="n">
-        <v>1120.454038069056</v>
+        <v>1120.454038069057</v>
       </c>
       <c r="N12" t="n">
-        <v>1563.011456565261</v>
+        <v>1563.011456565262</v>
       </c>
       <c r="O12" t="n">
-        <v>1945.645238680919</v>
+        <v>1945.64523868092</v>
       </c>
       <c r="P12" t="n">
-        <v>2233.40951617557</v>
+        <v>2233.409516175571</v>
       </c>
       <c r="Q12" t="n">
-        <v>2375.853118516089</v>
+        <v>2375.85311851609</v>
       </c>
       <c r="R12" t="n">
-        <v>2368.166485196823</v>
+        <v>2368.166485196825</v>
       </c>
       <c r="S12" t="n">
-        <v>2236.472201726021</v>
+        <v>2236.472201726022</v>
       </c>
       <c r="T12" t="n">
-        <v>2043.33956059864</v>
+        <v>2043.339560598641</v>
       </c>
       <c r="U12" t="n">
-        <v>1854.166186785505</v>
+        <v>1815.263721772144</v>
       </c>
       <c r="V12" t="n">
-        <v>1657.916543567125</v>
+        <v>1580.111613540401</v>
       </c>
       <c r="W12" t="n">
-        <v>1442.581651852286</v>
+        <v>1325.8742568122</v>
       </c>
       <c r="X12" t="n">
-        <v>1234.730151646753</v>
+        <v>1118.022756606667</v>
       </c>
       <c r="Y12" t="n">
-        <v>1026.969852881799</v>
+        <v>949.1649228550755</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>504.2947883671334</v>
+        <v>504.2947883671328</v>
       </c>
       <c r="C13" t="n">
-        <v>374.261070452589</v>
+        <v>374.2610704525883</v>
       </c>
       <c r="D13" t="n">
-        <v>374.261070452589</v>
+        <v>263.0468960536152</v>
       </c>
       <c r="E13" t="n">
-        <v>265.2504418835584</v>
+        <v>154.0362674845846</v>
       </c>
       <c r="F13" t="n">
-        <v>157.2629593990106</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="G13" t="n">
-        <v>157.2629593990106</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="H13" t="n">
-        <v>122.5166693955677</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="I13" t="n">
-        <v>61.0307631179525</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="J13" t="n">
         <v>137.2246935124985</v>
@@ -5203,7 +5203,7 @@
         <v>367.7433504300775</v>
       </c>
       <c r="L13" t="n">
-        <v>707.5915025393375</v>
+        <v>707.5915025393376</v>
       </c>
       <c r="M13" t="n">
         <v>1074.230205114212</v>
@@ -5224,7 +5224,7 @@
         <v>2072.378234105474</v>
       </c>
       <c r="S13" t="n">
-        <v>1917.819970747485</v>
+        <v>1917.819970747486</v>
       </c>
       <c r="T13" t="n">
         <v>1734.520673343862</v>
@@ -5239,10 +5239,10 @@
         <v>1018.017988198833</v>
       </c>
       <c r="X13" t="n">
-        <v>828.9309023141782</v>
+        <v>828.9309023141777</v>
       </c>
       <c r="Y13" t="n">
-        <v>647.0407881840106</v>
+        <v>647.0407881840099</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1376.996052183252</v>
+        <v>1303.973636974424</v>
       </c>
       <c r="C14" t="n">
-        <v>1046.936000256202</v>
+        <v>973.9135850473745</v>
       </c>
       <c r="D14" t="n">
-        <v>1046.936000256202</v>
+        <v>973.9135850473745</v>
       </c>
       <c r="E14" t="n">
-        <v>700.0502126713203</v>
+        <v>710.2815551978492</v>
       </c>
       <c r="F14" t="n">
-        <v>698.4341116694525</v>
+        <v>710.2815551978492</v>
       </c>
       <c r="G14" t="n">
-        <v>322.0370852261776</v>
+        <v>333.8845287545746</v>
       </c>
       <c r="H14" t="n">
-        <v>61.0307631179525</v>
+        <v>72.87820664634947</v>
       </c>
       <c r="I14" t="n">
-        <v>61.0307631179525</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="J14" t="n">
-        <v>231.0235173512788</v>
+        <v>231.0235173512783</v>
       </c>
       <c r="K14" t="n">
-        <v>536.5371081174103</v>
+        <v>536.5371081174101</v>
       </c>
       <c r="L14" t="n">
-        <v>952.4554946804096</v>
+        <v>952.4554946804094</v>
       </c>
       <c r="M14" t="n">
         <v>1446.914276069382</v>
@@ -5294,34 +5294,34 @@
         <v>2419.467544341227</v>
       </c>
       <c r="P14" t="n">
-        <v>2782.242799299104</v>
+        <v>2782.242799299105</v>
       </c>
       <c r="Q14" t="n">
-        <v>3006.499161029604</v>
+        <v>3006.499161029605</v>
       </c>
       <c r="R14" t="n">
-        <v>3051.538155897625</v>
+        <v>3051.538155897626</v>
       </c>
       <c r="S14" t="n">
-        <v>3051.538155897625</v>
+        <v>2974.976248777109</v>
       </c>
       <c r="T14" t="n">
-        <v>2883.468999997309</v>
+        <v>2806.907092876793</v>
       </c>
       <c r="U14" t="n">
-        <v>2668.822824980377</v>
+        <v>2592.26091785986</v>
       </c>
       <c r="V14" t="n">
-        <v>2376.662402650169</v>
+        <v>2300.100495529653</v>
       </c>
       <c r="W14" t="n">
-        <v>2062.796212393418</v>
+        <v>1986.234305272901</v>
       </c>
       <c r="X14" t="n">
-        <v>1728.232919145701</v>
+        <v>1651.671012025183</v>
       </c>
       <c r="Y14" t="n">
-        <v>1376.996052183252</v>
+        <v>1651.671012025183</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>879.4474422228708</v>
+        <v>742.0471208216441</v>
       </c>
       <c r="C15" t="n">
-        <v>704.9944129417438</v>
+        <v>588.2870179016563</v>
       </c>
       <c r="D15" t="n">
-        <v>556.0600032804925</v>
+        <v>439.3526082404051</v>
       </c>
       <c r="E15" t="n">
-        <v>396.8225482750371</v>
+        <v>319.0176182483121</v>
       </c>
       <c r="F15" t="n">
-        <v>250.2879903019221</v>
+        <v>211.3855252885596</v>
       </c>
       <c r="G15" t="n">
-        <v>113.8034123286708</v>
+        <v>113.8034123286709</v>
       </c>
       <c r="H15" t="n">
-        <v>61.0307631179525</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="I15" t="n">
-        <v>61.0307631179525</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="J15" t="n">
         <v>143.4594360153768</v>
@@ -5385,22 +5385,22 @@
         <v>2236.472201726021</v>
       </c>
       <c r="T15" t="n">
-        <v>2064.032486959779</v>
+        <v>2043.33956059864</v>
       </c>
       <c r="U15" t="n">
-        <v>1835.956648133282</v>
+        <v>1815.263721772143</v>
       </c>
       <c r="V15" t="n">
-        <v>1600.80453990154</v>
+        <v>1580.1116135404</v>
       </c>
       <c r="W15" t="n">
-        <v>1385.4696481867</v>
+        <v>1325.874256812199</v>
       </c>
       <c r="X15" t="n">
-        <v>1216.52061299453</v>
+        <v>1118.022756606666</v>
       </c>
       <c r="Y15" t="n">
-        <v>1047.662779242939</v>
+        <v>910.2624578417121</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>504.2947883671332</v>
+        <v>504.2947883671326</v>
       </c>
       <c r="C16" t="n">
-        <v>374.2610704525888</v>
+        <v>374.2610704525882</v>
       </c>
       <c r="D16" t="n">
-        <v>360.4295124882537</v>
+        <v>374.2610704525882</v>
       </c>
       <c r="E16" t="n">
-        <v>251.418883919223</v>
+        <v>265.2504418835576</v>
       </c>
       <c r="F16" t="n">
-        <v>251.418883919223</v>
+        <v>265.2504418835576</v>
       </c>
       <c r="G16" t="n">
-        <v>122.5166693955677</v>
+        <v>230.7368672341534</v>
       </c>
       <c r="H16" t="n">
         <v>122.5166693955677</v>
       </c>
       <c r="I16" t="n">
-        <v>61.0307631179525</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="J16" t="n">
         <v>137.2246935124984</v>
       </c>
       <c r="K16" t="n">
-        <v>367.7433504300774</v>
+        <v>367.7433504300773</v>
       </c>
       <c r="L16" t="n">
         <v>707.5915025393376</v>
@@ -5449,7 +5449,7 @@
         <v>1438.492281136268</v>
       </c>
       <c r="O16" t="n">
-        <v>1761.841614514368</v>
+        <v>1761.841614514367</v>
       </c>
       <c r="P16" t="n">
         <v>2020.505100656696</v>
@@ -5461,7 +5461,7 @@
         <v>2072.378234105474</v>
       </c>
       <c r="S16" t="n">
-        <v>1917.819970747486</v>
+        <v>1917.819970747485</v>
       </c>
       <c r="T16" t="n">
         <v>1734.520673343862</v>
@@ -5470,16 +5470,16 @@
         <v>1484.314716414955</v>
       </c>
       <c r="V16" t="n">
-        <v>1268.532693222431</v>
+        <v>1268.53269322243</v>
       </c>
       <c r="W16" t="n">
-        <v>1018.017988198833</v>
+        <v>1018.017988198832</v>
       </c>
       <c r="X16" t="n">
-        <v>828.930902314178</v>
+        <v>828.9309023141774</v>
       </c>
       <c r="Y16" t="n">
-        <v>647.0407881840104</v>
+        <v>647.0407881840098</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1430.888526495823</v>
+        <v>1430.888526495822</v>
       </c>
       <c r="C17" t="n">
-        <v>1160.597444129255</v>
+        <v>1160.597444129253</v>
       </c>
       <c r="D17" t="n">
-        <v>901.0031800963475</v>
+        <v>901.0031800963461</v>
       </c>
       <c r="E17" t="n">
-        <v>613.8863620719467</v>
+        <v>613.8863620719453</v>
       </c>
       <c r="F17" t="n">
-        <v>578.8961725484926</v>
+        <v>301.5718918561815</v>
       </c>
       <c r="G17" t="n">
         <v>262.2681156656967</v>
       </c>
       <c r="H17" t="n">
-        <v>61.03076311795254</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="I17" t="n">
-        <v>61.03076311795254</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="J17" t="n">
-        <v>231.0235173512783</v>
+        <v>231.0235173512788</v>
       </c>
       <c r="K17" t="n">
-        <v>536.5371081174101</v>
+        <v>536.5371081174103</v>
       </c>
       <c r="L17" t="n">
-        <v>952.4554946804096</v>
+        <v>952.4554946804101</v>
       </c>
       <c r="M17" t="n">
         <v>1446.914276069383</v>
@@ -5531,34 +5531,34 @@
         <v>2419.467544341228</v>
       </c>
       <c r="P17" t="n">
-        <v>2782.242799299106</v>
+        <v>2782.242799299105</v>
       </c>
       <c r="Q17" t="n">
-        <v>3006.499161029606</v>
+        <v>3006.499161029604</v>
       </c>
       <c r="R17" t="n">
-        <v>3051.538155897627</v>
+        <v>3051.538155897626</v>
       </c>
       <c r="S17" t="n">
-        <v>3034.74521833759</v>
+        <v>3034.745218337589</v>
       </c>
       <c r="T17" t="n">
-        <v>2926.445031997755</v>
+        <v>2926.445031997754</v>
       </c>
       <c r="U17" t="n">
-        <v>2771.567826541304</v>
+        <v>2771.567826541303</v>
       </c>
       <c r="V17" t="n">
-        <v>2539.176373771576</v>
+        <v>2539.176373771575</v>
       </c>
       <c r="W17" t="n">
-        <v>2285.079153075306</v>
+        <v>2285.079153075304</v>
       </c>
       <c r="X17" t="n">
-        <v>2010.28482938807</v>
+        <v>2010.284829388068</v>
       </c>
       <c r="Y17" t="n">
-        <v>1718.816931986102</v>
+        <v>1718.8169319861</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>918.3499072362334</v>
+        <v>751.1931095809562</v>
       </c>
       <c r="C18" t="n">
-        <v>743.8968779551064</v>
+        <v>675.4115148736726</v>
       </c>
       <c r="D18" t="n">
-        <v>594.9624682938552</v>
+        <v>526.4771052124213</v>
       </c>
       <c r="E18" t="n">
-        <v>435.7250132883997</v>
+        <v>367.2396502069657</v>
       </c>
       <c r="F18" t="n">
-        <v>289.1904553152847</v>
+        <v>220.7050922338507</v>
       </c>
       <c r="G18" t="n">
-        <v>152.7058773420334</v>
+        <v>84.22051426059946</v>
       </c>
       <c r="H18" t="n">
-        <v>61.03076311795254</v>
+        <v>84.22051426059946</v>
       </c>
       <c r="I18" t="n">
-        <v>61.03076311795254</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="J18" t="n">
-        <v>143.4594360153769</v>
+        <v>143.4594360153768</v>
       </c>
       <c r="K18" t="n">
-        <v>362.4979917678522</v>
+        <v>362.4979917678521</v>
       </c>
       <c r="L18" t="n">
-        <v>703.3449021689064</v>
+        <v>703.3449021689062</v>
       </c>
       <c r="M18" t="n">
         <v>1120.454038069057</v>
@@ -5607,7 +5607,7 @@
         <v>1563.011456565262</v>
       </c>
       <c r="O18" t="n">
-        <v>1945.64523868092</v>
+        <v>1945.645238680919</v>
       </c>
       <c r="P18" t="n">
         <v>2233.409516175571</v>
@@ -5616,28 +5616,28 @@
         <v>2375.85311851609</v>
       </c>
       <c r="R18" t="n">
-        <v>2368.166485196825</v>
+        <v>2368.166485196824</v>
       </c>
       <c r="S18" t="n">
-        <v>2236.472201726022</v>
+        <v>2236.472201726021</v>
       </c>
       <c r="T18" t="n">
-        <v>2043.339560598641</v>
+        <v>2043.33956059864</v>
       </c>
       <c r="U18" t="n">
-        <v>1815.263721772144</v>
+        <v>1815.263721772143</v>
       </c>
       <c r="V18" t="n">
-        <v>1580.111613540401</v>
+        <v>1580.1116135404</v>
       </c>
       <c r="W18" t="n">
-        <v>1325.8742568122</v>
+        <v>1325.874256812199</v>
       </c>
       <c r="X18" t="n">
-        <v>1118.022756606667</v>
+        <v>1127.168745365978</v>
       </c>
       <c r="Y18" t="n">
-        <v>1008.933892415556</v>
+        <v>919.4084466010243</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>399.5022982015385</v>
+        <v>399.5022982015386</v>
       </c>
       <c r="C19" t="n">
-        <v>329.237549847475</v>
+        <v>329.2375498474751</v>
       </c>
       <c r="D19" t="n">
         <v>277.7923450089827</v>
@@ -5659,37 +5659,37 @@
         <v>228.550686000433</v>
       </c>
       <c r="F19" t="n">
-        <v>180.332173076366</v>
+        <v>180.3321730763661</v>
       </c>
       <c r="G19" t="n">
-        <v>111.1989281131915</v>
+        <v>111.1989281131916</v>
       </c>
       <c r="H19" t="n">
         <v>62.74769983508683</v>
       </c>
       <c r="I19" t="n">
-        <v>61.03076311795254</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="J19" t="n">
         <v>162.5043816692298</v>
       </c>
       <c r="K19" t="n">
-        <v>345.9262769718301</v>
+        <v>249.2184039460061</v>
       </c>
       <c r="L19" t="n">
-        <v>575.3545129962372</v>
+        <v>486.7961685953546</v>
       </c>
       <c r="M19" t="n">
-        <v>823.8482183369879</v>
+        <v>735.2898739361051</v>
       </c>
       <c r="N19" t="n">
-        <v>1076.590321749254</v>
+        <v>988.0319773483712</v>
       </c>
       <c r="O19" t="n">
-        <v>1297.107972491357</v>
+        <v>1200.400099465534</v>
       </c>
       <c r="P19" t="n">
-        <v>1383.986654993188</v>
+        <v>1383.986654993189</v>
       </c>
       <c r="Q19" t="n">
         <v>1485.25704659288</v>
@@ -5707,16 +5707,16 @@
         <v>1080.677378446956</v>
       </c>
       <c r="V19" t="n">
-        <v>924.6643248149128</v>
+        <v>924.6643248149129</v>
       </c>
       <c r="W19" t="n">
-        <v>733.9185893517955</v>
+        <v>733.9185893517956</v>
       </c>
       <c r="X19" t="n">
-        <v>604.6004730276215</v>
+        <v>604.6004730276217</v>
       </c>
       <c r="Y19" t="n">
-        <v>482.4793284579348</v>
+        <v>482.4793284579349</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1430.888526495823</v>
+        <v>1430.888526495822</v>
       </c>
       <c r="C20" t="n">
-        <v>1160.597444129255</v>
+        <v>1160.597444129253</v>
       </c>
       <c r="D20" t="n">
-        <v>901.0031800963482</v>
+        <v>901.0031800963462</v>
       </c>
       <c r="E20" t="n">
-        <v>613.8863620719474</v>
+        <v>613.8863620719453</v>
       </c>
       <c r="F20" t="n">
-        <v>301.5718918561831</v>
+        <v>578.8961725484903</v>
       </c>
       <c r="G20" t="n">
         <v>262.2681156656967</v>
       </c>
       <c r="H20" t="n">
-        <v>61.03076311795254</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="I20" t="n">
-        <v>61.03076311795254</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="J20" t="n">
-        <v>231.0235173512801</v>
+        <v>231.0235173512788</v>
       </c>
       <c r="K20" t="n">
-        <v>536.5371081174121</v>
+        <v>536.5371081174103</v>
       </c>
       <c r="L20" t="n">
-        <v>952.4554946804119</v>
+        <v>952.4554946804101</v>
       </c>
       <c r="M20" t="n">
-        <v>1446.914276069385</v>
+        <v>1446.914276069383</v>
       </c>
       <c r="N20" t="n">
-        <v>1953.987725860804</v>
+        <v>1953.987725860803</v>
       </c>
       <c r="O20" t="n">
-        <v>2419.46754434123</v>
+        <v>2419.467544341228</v>
       </c>
       <c r="P20" t="n">
-        <v>2782.242799299107</v>
+        <v>2782.242799299105</v>
       </c>
       <c r="Q20" t="n">
-        <v>3006.499161029606</v>
+        <v>3006.499161029604</v>
       </c>
       <c r="R20" t="n">
-        <v>3051.538155897627</v>
+        <v>3051.538155897626</v>
       </c>
       <c r="S20" t="n">
-        <v>3034.745218337591</v>
+        <v>3034.745218337589</v>
       </c>
       <c r="T20" t="n">
-        <v>2926.445031997755</v>
+        <v>2926.445031997754</v>
       </c>
       <c r="U20" t="n">
-        <v>2771.567826541304</v>
+        <v>2771.567826541303</v>
       </c>
       <c r="V20" t="n">
-        <v>2539.176373771577</v>
+        <v>2539.176373771576</v>
       </c>
       <c r="W20" t="n">
-        <v>2285.079153075307</v>
+        <v>2285.079153075305</v>
       </c>
       <c r="X20" t="n">
-        <v>2010.28482938807</v>
+        <v>2010.284829388068</v>
       </c>
       <c r="Y20" t="n">
-        <v>1718.816931986102</v>
+        <v>1718.8169319861</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>819.6784726623899</v>
+        <v>840.7185553954876</v>
       </c>
       <c r="C21" t="n">
-        <v>645.2254433812629</v>
+        <v>743.8968779551064</v>
       </c>
       <c r="D21" t="n">
-        <v>496.2910337200117</v>
+        <v>594.9624682938552</v>
       </c>
       <c r="E21" t="n">
-        <v>337.0535787145562</v>
+        <v>435.7250132883996</v>
       </c>
       <c r="F21" t="n">
-        <v>190.5190207414412</v>
+        <v>289.1904553152846</v>
       </c>
       <c r="G21" t="n">
         <v>152.7058773420334</v>
       </c>
       <c r="H21" t="n">
-        <v>61.03076311795254</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="I21" t="n">
-        <v>61.03076311795254</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="J21" t="n">
         <v>143.4594360153768</v>
@@ -5859,22 +5859,22 @@
         <v>2236.472201726021</v>
       </c>
       <c r="T21" t="n">
-        <v>2120.970912439386</v>
+        <v>2043.33956059864</v>
       </c>
       <c r="U21" t="n">
-        <v>1892.895073612889</v>
+        <v>1815.263721772143</v>
       </c>
       <c r="V21" t="n">
-        <v>1657.742965381146</v>
+        <v>1580.1116135404</v>
       </c>
       <c r="W21" t="n">
-        <v>1403.505608652945</v>
+        <v>1325.874256812199</v>
       </c>
       <c r="X21" t="n">
-        <v>1195.654108447412</v>
+        <v>1118.022756606666</v>
       </c>
       <c r="Y21" t="n">
-        <v>987.8938096824579</v>
+        <v>910.2624578417121</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>399.5022982015385</v>
+        <v>399.5022982015386</v>
       </c>
       <c r="C22" t="n">
-        <v>329.237549847475</v>
+        <v>329.2375498474751</v>
       </c>
       <c r="D22" t="n">
         <v>277.7923450089827</v>
@@ -5896,16 +5896,16 @@
         <v>228.550686000433</v>
       </c>
       <c r="F22" t="n">
-        <v>180.332173076366</v>
+        <v>180.3321730763661</v>
       </c>
       <c r="G22" t="n">
         <v>111.1989281131916</v>
       </c>
       <c r="H22" t="n">
-        <v>62.74769983508684</v>
+        <v>62.74769983508683</v>
       </c>
       <c r="I22" t="n">
-        <v>61.03076311795254</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="J22" t="n">
         <v>162.5043816692298</v>
@@ -5917,16 +5917,16 @@
         <v>583.5040416211785</v>
       </c>
       <c r="M22" t="n">
-        <v>831.9977469619291</v>
+        <v>831.997746961929</v>
       </c>
       <c r="N22" t="n">
-        <v>1076.590321749255</v>
+        <v>988.0319773483712</v>
       </c>
       <c r="O22" t="n">
-        <v>1297.107972491357</v>
+        <v>1200.400099465534</v>
       </c>
       <c r="P22" t="n">
-        <v>1383.986654993188</v>
+        <v>1383.986654993189</v>
       </c>
       <c r="Q22" t="n">
         <v>1485.25704659288</v>
@@ -5944,16 +5944,16 @@
         <v>1080.677378446956</v>
       </c>
       <c r="V22" t="n">
-        <v>924.6643248149128</v>
+        <v>924.6643248149129</v>
       </c>
       <c r="W22" t="n">
-        <v>733.9185893517955</v>
+        <v>733.9185893517956</v>
       </c>
       <c r="X22" t="n">
-        <v>604.6004730276215</v>
+        <v>604.6004730276217</v>
       </c>
       <c r="Y22" t="n">
-        <v>482.4793284579348</v>
+        <v>482.4793284579349</v>
       </c>
     </row>
     <row r="23">
@@ -5972,55 +5972,55 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464971</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V23" t="n">
         <v>2819.429779746127</v>
@@ -6060,13 +6060,13 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F25" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226762</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>79.65384678970707</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K25" t="n">
-        <v>253.5298502264955</v>
+        <v>350.2377232523199</v>
       </c>
       <c r="L25" t="n">
-        <v>505.9475671746767</v>
+        <v>602.6554402005011</v>
       </c>
       <c r="M25" t="n">
-        <v>770.0879214996984</v>
+        <v>770.0879214996988</v>
       </c>
       <c r="N25" t="n">
-        <v>941.3967585295459</v>
+        <v>941.3967585295463</v>
       </c>
       <c r="O25" t="n">
         <v>1176.02298077356</v>
       </c>
       <c r="P25" t="n">
-        <v>1371.681856552142</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q25" t="n">
         <v>1481.310496936507</v>
@@ -6181,16 +6181,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>1955.671712554366</v>
       </c>
       <c r="C26" t="n">
-        <v>1646.478165174436</v>
+        <v>1646.478165174435</v>
       </c>
       <c r="D26" t="n">
         <v>1347.981436128166</v>
@@ -6212,7 +6212,7 @@
         <v>1021.962153090402</v>
       </c>
       <c r="F26" t="n">
-        <v>670.7452178612757</v>
+        <v>670.7452178612758</v>
       </c>
       <c r="G26" t="n">
         <v>315.4417372667532</v>
@@ -6224,7 +6224,7 @@
         <v>95.04551302703189</v>
       </c>
       <c r="J26" t="n">
-        <v>342.5042110522832</v>
+        <v>342.5042110522846</v>
       </c>
       <c r="K26" t="n">
         <v>734.9031518083569</v>
@@ -6297,7 +6297,7 @@
         <v>187.1362923965958</v>
       </c>
       <c r="H27" t="n">
-        <v>96.63439803446332</v>
+        <v>96.63439803446335</v>
       </c>
       <c r="I27" t="n">
         <v>77.62710643600128</v>
@@ -6382,19 +6382,19 @@
         <v>77.62710643600128</v>
       </c>
       <c r="J28" t="n">
-        <v>181.3293059491641</v>
+        <v>148.029427039668</v>
       </c>
       <c r="K28" t="n">
-        <v>443.8960559642678</v>
+        <v>410.5961770547717</v>
       </c>
       <c r="L28" t="n">
-        <v>819.0354214789912</v>
+        <v>702.0571454702557</v>
       </c>
       <c r="M28" t="n">
-        <v>1221.772034144768</v>
+        <v>928.0691938356808</v>
       </c>
       <c r="N28" t="n">
-        <v>1451.660438240842</v>
+        <v>1328.057137607773</v>
       </c>
       <c r="O28" t="n">
         <v>1685.966303594414</v>
@@ -6440,28 +6440,28 @@
         <v>1955.671712554366</v>
       </c>
       <c r="C29" t="n">
-        <v>1646.478165174436</v>
+        <v>1646.478165174435</v>
       </c>
       <c r="D29" t="n">
         <v>1347.981436128166</v>
       </c>
       <c r="E29" t="n">
-        <v>1021.962153090403</v>
+        <v>1021.962153090402</v>
       </c>
       <c r="F29" t="n">
-        <v>670.7452178612759</v>
+        <v>670.7452178612758</v>
       </c>
       <c r="G29" t="n">
-        <v>315.4417372667533</v>
+        <v>315.4417372667532</v>
       </c>
       <c r="H29" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="I29" t="n">
-        <v>95.04551302703203</v>
+        <v>95.04551302703194</v>
       </c>
       <c r="J29" t="n">
-        <v>342.504211052285</v>
+        <v>342.5042110522848</v>
       </c>
       <c r="K29" t="n">
         <v>734.9031518083588</v>
@@ -6473,40 +6473,40 @@
         <v>1836.628403861147</v>
       </c>
       <c r="N29" t="n">
-        <v>2441.986787986156</v>
+        <v>2441.986787986157</v>
       </c>
       <c r="O29" t="n">
-        <v>3003.53882593172</v>
+        <v>3003.538825931721</v>
       </c>
       <c r="P29" t="n">
-        <v>3456.892759355125</v>
+        <v>3456.892759355127</v>
       </c>
       <c r="Q29" t="n">
-        <v>3763.758688177035</v>
+        <v>3763.758688177036</v>
       </c>
       <c r="R29" t="n">
-        <v>3881.355321800065</v>
+        <v>3881.355321800064</v>
       </c>
       <c r="S29" t="n">
-        <v>3830.833622887641</v>
+        <v>3830.83362288764</v>
       </c>
       <c r="T29" t="n">
-        <v>3684.624844832344</v>
+        <v>3684.624844832343</v>
       </c>
       <c r="U29" t="n">
-        <v>3490.863337666661</v>
+        <v>3490.86333766666</v>
       </c>
       <c r="V29" t="n">
-        <v>3219.569419883571</v>
+        <v>3219.56941988357</v>
       </c>
       <c r="W29" t="n">
-        <v>2926.569734173938</v>
+        <v>2926.569734173937</v>
       </c>
       <c r="X29" t="n">
         <v>2612.872945473338</v>
       </c>
       <c r="Y29" t="n">
-        <v>2282.502583058008</v>
+        <v>2282.502583058007</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849262</v>
       </c>
       <c r="C30" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037993</v>
       </c>
       <c r="D30" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425481</v>
       </c>
       <c r="E30" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370926</v>
       </c>
       <c r="F30" t="n">
-        <v>323.4993925639777</v>
+        <v>323.4993925639776</v>
       </c>
       <c r="G30" t="n">
-        <v>187.1362923965958</v>
+        <v>187.1362923965962</v>
       </c>
       <c r="H30" t="n">
-        <v>96.63439803446335</v>
+        <v>96.63439803446369</v>
       </c>
       <c r="I30" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="J30" t="n">
-        <v>171.3043759266186</v>
+        <v>171.3043759266184</v>
       </c>
       <c r="K30" t="n">
         <v>409.5685749069658</v>
       </c>
       <c r="L30" t="n">
-        <v>776.2667352196311</v>
+        <v>776.2667352196308</v>
       </c>
       <c r="M30" t="n">
         <v>1223.543060441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1697.066103996402</v>
+        <v>1697.066103996401</v>
       </c>
       <c r="O30" t="n">
         <v>2108.027383414456</v>
@@ -6585,7 +6585,7 @@
         <v>1328.634480269948</v>
       </c>
       <c r="Y30" t="n">
-        <v>1120.874181504995</v>
+        <v>1120.874181504994</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>684.3458835222598</v>
+        <v>684.345883522259</v>
       </c>
       <c r="C31" t="n">
-        <v>575.1786701548336</v>
+        <v>575.178670154833</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8310003029787</v>
+        <v>484.8310003029782</v>
       </c>
       <c r="E31" t="n">
-        <v>396.6868762810664</v>
+        <v>396.686876281066</v>
       </c>
       <c r="F31" t="n">
-        <v>309.5658983436368</v>
+        <v>309.5658983436365</v>
       </c>
       <c r="G31" t="n">
-        <v>201.6320312788366</v>
+        <v>201.6320312788363</v>
       </c>
       <c r="H31" t="n">
-        <v>115.1838140571751</v>
+        <v>115.183814057175</v>
       </c>
       <c r="I31" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="J31" t="n">
-        <v>181.3293059491641</v>
+        <v>181.3293059491642</v>
       </c>
       <c r="K31" t="n">
-        <v>338.2197272830617</v>
+        <v>443.8960559642679</v>
       </c>
       <c r="L31" t="n">
-        <v>713.3590927977851</v>
+        <v>702.0571454702547</v>
       </c>
       <c r="M31" t="n">
-        <v>939.3711411632102</v>
+        <v>928.0691938356798</v>
       </c>
       <c r="N31" t="n">
-        <v>1339.359084935302</v>
+        <v>1328.057137607772</v>
       </c>
       <c r="O31" t="n">
-        <v>1697.268250921943</v>
+        <v>1685.966303594413</v>
       </c>
       <c r="P31" t="n">
-        <v>1977.153371094302</v>
+        <v>1977.153371094299</v>
       </c>
       <c r="Q31" t="n">
-        <v>2113.343234313043</v>
+        <v>2113.343234313042</v>
       </c>
       <c r="R31" t="n">
-        <v>2083.281746631052</v>
+        <v>2083.28174663105</v>
       </c>
       <c r="S31" t="n">
-        <v>1951.364832018359</v>
+        <v>1951.364832018358</v>
       </c>
       <c r="T31" t="n">
-        <v>1789.367186148366</v>
+        <v>1789.367186148365</v>
       </c>
       <c r="U31" t="n">
-        <v>1560.03328883449</v>
+        <v>1560.033288834489</v>
       </c>
       <c r="V31" t="n">
-        <v>1365.117770189084</v>
+        <v>1365.117770189083</v>
       </c>
       <c r="W31" t="n">
         <v>1135.469569712604</v>
       </c>
       <c r="X31" t="n">
-        <v>967.2489883750679</v>
+        <v>967.248988375067</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.2253787920187</v>
+        <v>806.2253787920178</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1955.671712554366</v>
+        <v>1955.671712554367</v>
       </c>
       <c r="C32" t="n">
         <v>1646.478165174436</v>
@@ -6686,22 +6686,22 @@
         <v>1021.962153090403</v>
       </c>
       <c r="F32" t="n">
-        <v>670.7452178612759</v>
+        <v>670.7452178612762</v>
       </c>
       <c r="G32" t="n">
-        <v>315.4417372667533</v>
+        <v>315.4417372667535</v>
       </c>
       <c r="H32" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="I32" t="n">
-        <v>95.04551302703172</v>
+        <v>95.04551302703203</v>
       </c>
       <c r="J32" t="n">
-        <v>342.5042110522843</v>
+        <v>342.5042110522845</v>
       </c>
       <c r="K32" t="n">
-        <v>734.9031518083581</v>
+        <v>734.9031518083582</v>
       </c>
       <c r="L32" t="n">
         <v>1244.516932122994</v>
@@ -6722,7 +6722,7 @@
         <v>3763.758688177035</v>
       </c>
       <c r="R32" t="n">
-        <v>3881.355321800065</v>
+        <v>3881.355321800064</v>
       </c>
       <c r="S32" t="n">
         <v>3830.833622887641</v>
@@ -6737,10 +6737,10 @@
         <v>3219.569419883571</v>
       </c>
       <c r="W32" t="n">
-        <v>2926.569734173937</v>
+        <v>2926.569734173938</v>
       </c>
       <c r="X32" t="n">
-        <v>2612.872945473338</v>
+        <v>2612.872945473339</v>
       </c>
       <c r="Y32" t="n">
         <v>2282.502583058008</v>
@@ -6771,10 +6771,10 @@
         <v>187.1362923965958</v>
       </c>
       <c r="H33" t="n">
-        <v>96.63439803446335</v>
+        <v>96.63439803446332</v>
       </c>
       <c r="I33" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="J33" t="n">
         <v>171.3043759266186</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>684.3458835222599</v>
+        <v>684.3458835222598</v>
       </c>
       <c r="C34" t="n">
-        <v>575.1786701548338</v>
+        <v>575.1786701548336</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8310003029788</v>
+        <v>484.8310003029787</v>
       </c>
       <c r="E34" t="n">
-        <v>396.6868762810665</v>
+        <v>396.6868762810664</v>
       </c>
       <c r="F34" t="n">
-        <v>309.5658983436369</v>
+        <v>309.5658983436368</v>
       </c>
       <c r="G34" t="n">
         <v>201.6320312788366</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1838140571752</v>
+        <v>115.1838140571751</v>
       </c>
       <c r="I34" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="J34" t="n">
         <v>181.3293059491641</v>
@@ -6862,25 +6862,25 @@
         <v>443.8960559642676</v>
       </c>
       <c r="L34" t="n">
-        <v>819.0354214789909</v>
+        <v>819.035421478991</v>
       </c>
       <c r="M34" t="n">
-        <v>1089.480443537906</v>
+        <v>1045.047469844416</v>
       </c>
       <c r="N34" t="n">
-        <v>1489.468387309998</v>
+        <v>1445.035413616508</v>
       </c>
       <c r="O34" t="n">
-        <v>1685.966303594415</v>
+        <v>1802.944579603148</v>
       </c>
       <c r="P34" t="n">
         <v>1977.153371094302</v>
       </c>
       <c r="Q34" t="n">
-        <v>2113.343234313044</v>
+        <v>2113.343234313043</v>
       </c>
       <c r="R34" t="n">
-        <v>2083.281746631053</v>
+        <v>2083.281746631052</v>
       </c>
       <c r="S34" t="n">
         <v>1951.364832018359</v>
@@ -6889,19 +6889,19 @@
         <v>1789.367186148366</v>
       </c>
       <c r="U34" t="n">
-        <v>1560.033288834491</v>
+        <v>1560.03328883449</v>
       </c>
       <c r="V34" t="n">
         <v>1365.117770189084</v>
       </c>
       <c r="W34" t="n">
-        <v>1135.469569712605</v>
+        <v>1135.469569712604</v>
       </c>
       <c r="X34" t="n">
-        <v>967.2489883750682</v>
+        <v>967.2489883750679</v>
       </c>
       <c r="Y34" t="n">
-        <v>806.2253787920188</v>
+        <v>806.2253787920187</v>
       </c>
     </row>
     <row r="35">
@@ -6920,31 +6920,31 @@
         <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464981</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307337</v>
+        <v>581.825297830734</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6962,19 +6962,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170929</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630293</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226755</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>176.3617198155308</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K37" t="n">
-        <v>371.380447109025</v>
+        <v>370.0614702889412</v>
       </c>
       <c r="L37" t="n">
-        <v>602.6554402005021</v>
+        <v>525.7713142112984</v>
       </c>
       <c r="M37" t="n">
-        <v>770.0879214996999</v>
+        <v>789.9116685363202</v>
       </c>
       <c r="N37" t="n">
-        <v>941.3967585295474</v>
+        <v>961.2205055661677</v>
       </c>
       <c r="O37" t="n">
-        <v>1176.022980773561</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P37" t="n">
-        <v>1371.681856552143</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734893</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,67 +7157,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218377</v>
+        <v>66.51211643218286</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170929</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630293</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J40" t="n">
-        <v>175.0427429954467</v>
+        <v>79.65384678970706</v>
       </c>
       <c r="K40" t="n">
-        <v>370.0614702889409</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L40" t="n">
-        <v>622.479187237122</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M40" t="n">
-        <v>886.6195415621437</v>
+        <v>791.2306453564042</v>
       </c>
       <c r="N40" t="n">
-        <v>1134.812504581195</v>
+        <v>1059.247355412076</v>
       </c>
       <c r="O40" t="n">
-        <v>1272.730853799385</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P40" t="n">
-        <v>1468.389729577967</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734893</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="41">
@@ -7403,22 +7403,22 @@
         <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218286</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7430,25 +7430,25 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
         <v>2290.538235362621</v>
@@ -7464,64 +7464,64 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
         <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226756</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>176.3617198155309</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K43" t="n">
-        <v>371.3804471090251</v>
+        <v>350.2377232523201</v>
       </c>
       <c r="L43" t="n">
-        <v>527.0902910313823</v>
+        <v>602.6554402005012</v>
       </c>
       <c r="M43" t="n">
-        <v>694.5227723305801</v>
+        <v>866.7957945255229</v>
       </c>
       <c r="N43" t="n">
-        <v>962.5394823862514</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O43" t="n">
-        <v>1197.165704630265</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P43" t="n">
-        <v>1392.824580408847</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W43" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
         <v>1181.256586070899</v>
@@ -7646,19 +7646,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7685,13 +7685,13 @@
         <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7801,31 +7801,31 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J46" t="n">
-        <v>175.0427429954468</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
-        <v>358.9027651347971</v>
+        <v>350.2377232523197</v>
       </c>
       <c r="L46" t="n">
-        <v>611.3204820829782</v>
+        <v>602.6554402005008</v>
       </c>
       <c r="M46" t="n">
-        <v>875.4608364079999</v>
+        <v>866.7957945255225</v>
       </c>
       <c r="N46" t="n">
-        <v>1046.769673437847</v>
+        <v>1134.812504581194</v>
       </c>
       <c r="O46" t="n">
-        <v>1184.688022656037</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P46" t="n">
-        <v>1380.34689843462</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R46" t="n">
         <v>1489.975538818984</v>
@@ -10030,22 +10030,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>77.95106810797921</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>38.1898475446003</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10270,10 +10270,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>44.31482678525467</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>123.5904549023968</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10513,16 +10513,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>44.88179160958643</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>16.84668855774467</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.49924829537005</v>
+        <v>14.49924829537004</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>326.7594514077787</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>316.1696012574541</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>103.3862670430494</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>368.3626053784826</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>258.3962588871428</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>75.79628804931212</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>166.3884643413132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>212.4997132667624</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>289.238818106906</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>112.3583824353277</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.1020326549834</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>14.83215833673661</v>
       </c>
       <c r="G13" t="n">
         <v>127.6131923784188</v>
       </c>
       <c r="H13" t="n">
-        <v>72.73916875679123</v>
+        <v>107.1379958601997</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.87104721483901</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>344.2204013002516</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>316.169601257454</v>
+        <v>316.1696012574541</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>82.42122015800297</v>
       </c>
       <c r="F14" t="n">
-        <v>366.7626653866334</v>
+        <v>368.3626053784826</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>11.7289690931129</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.79628804931212</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>347.7244982928247</v>
       </c>
     </row>
     <row r="15">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>96.40879027029175</v>
+        <v>110.1020326549835</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>106.9076076597023</v>
+        <v>106.9076076597024</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>93.4447534755088</v>
       </c>
       <c r="H16" t="n">
-        <v>107.1379958601997</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>274.551037885387</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>274.5510378853856</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>274.5510378853861</v>
       </c>
       <c r="G20" t="n">
-        <v>274.5510378853841</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>956959.9072096318</v>
+        <v>956959.9072096319</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>956959.9072096319</v>
+        <v>956959.907209632</v>
       </c>
     </row>
     <row r="7">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>368674.3524226672</v>
+        <v>368674.3524226673</v>
       </c>
       <c r="C2" t="n">
-        <v>368674.3524226672</v>
+        <v>368674.3524226673</v>
       </c>
       <c r="D2" t="n">
-        <v>368703.133406519</v>
+        <v>368703.1334065193</v>
       </c>
       <c r="E2" t="n">
         <v>326188.1257093853</v>
       </c>
       <c r="F2" t="n">
-        <v>326188.1257093851</v>
+        <v>326188.1257093852</v>
       </c>
       <c r="G2" t="n">
         <v>359634.3782618727</v>
       </c>
       <c r="H2" t="n">
-        <v>359634.3782618728</v>
+        <v>359634.3782618727</v>
       </c>
       <c r="I2" t="n">
         <v>369468.7964389275</v>
@@ -26338,10 +26338,10 @@
         <v>369468.7964389278</v>
       </c>
       <c r="K2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="L2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389279</v>
       </c>
       <c r="M2" t="n">
         <v>369468.7964389274</v>
@@ -26350,10 +26350,10 @@
         <v>369468.7964389273</v>
       </c>
       <c r="O2" t="n">
+        <v>369468.7964389272</v>
+      </c>
+      <c r="P2" t="n">
         <v>369468.7964389274</v>
-      </c>
-      <c r="P2" t="n">
-        <v>369468.796438928</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171169.7048931356</v>
+        <v>171169.704893137</v>
       </c>
       <c r="E3" t="n">
-        <v>928626.9828614065</v>
+        <v>928626.9828614057</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47337.02389190096</v>
+        <v>47337.02389190084</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>60307.60726530859</v>
+        <v>60307.60726530874</v>
       </c>
       <c r="J3" t="n">
-        <v>36352.13055698652</v>
+        <v>36352.13055698646</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47337.02389190082</v>
+        <v>47337.02389190077</v>
       </c>
       <c r="M3" t="n">
-        <v>186300.8813297682</v>
+        <v>186300.8813297684</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>397952.3823424642</v>
+        <v>397952.3823424636</v>
       </c>
       <c r="E4" t="n">
-        <v>58911.24292805718</v>
+        <v>58911.24292805712</v>
       </c>
       <c r="F4" t="n">
-        <v>58911.24292805715</v>
+        <v>58911.24292805714</v>
       </c>
       <c r="G4" t="n">
-        <v>100421.2759989386</v>
+        <v>100421.2759989387</v>
       </c>
       <c r="H4" t="n">
         <v>100421.2759989387</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657702</v>
+        <v>93774.137826577</v>
       </c>
       <c r="J4" t="n">
-        <v>95033.13778715173</v>
+        <v>95033.13778715172</v>
       </c>
       <c r="K4" t="n">
         <v>95033.13778715175</v>
       </c>
       <c r="L4" t="n">
-        <v>95033.13778715175</v>
+        <v>95033.13778715173</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657696</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.137826577</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.137826577</v>
       </c>
       <c r="P4" t="n">
         <v>93774.137826577</v>
@@ -26473,28 +26473,28 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>37984.72116648065</v>
+        <v>37984.72116648068</v>
       </c>
       <c r="E5" t="n">
-        <v>72159.42212422499</v>
+        <v>72159.42212422501</v>
       </c>
       <c r="F5" t="n">
-        <v>72159.42212422499</v>
+        <v>72159.42212422501</v>
       </c>
       <c r="G5" t="n">
-        <v>77133.8924511853</v>
+        <v>77133.89245118527</v>
       </c>
       <c r="H5" t="n">
-        <v>77133.89245118528</v>
+        <v>77133.89245118527</v>
       </c>
       <c r="I5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="J5" t="n">
         <v>87728.20329125514</v>
       </c>
       <c r="K5" t="n">
-        <v>87728.20329125514</v>
+        <v>87728.20329125515</v>
       </c>
       <c r="L5" t="n">
         <v>87728.20329125514</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-132569.207509064</v>
+        <v>-132573.621086932</v>
       </c>
       <c r="C6" t="n">
-        <v>-132569.207509064</v>
+        <v>-132573.6210869321</v>
       </c>
       <c r="D6" t="n">
-        <v>-238403.6749955615</v>
+        <v>-238407.9286790754</v>
       </c>
       <c r="E6" t="n">
-        <v>-733509.5222043034</v>
+        <v>-733749.9703750222</v>
       </c>
       <c r="F6" t="n">
-        <v>195117.4606571028</v>
+        <v>194877.0124863836</v>
       </c>
       <c r="G6" t="n">
-        <v>134742.1859198478</v>
+        <v>134687.5502633088</v>
       </c>
       <c r="H6" t="n">
-        <v>182079.2098117491</v>
+        <v>182024.5741552096</v>
       </c>
       <c r="I6" t="n">
-        <v>132868.4540407921</v>
+        <v>132868.4540407919</v>
       </c>
       <c r="J6" t="n">
-        <v>150355.3248035343</v>
+        <v>150355.3248035345</v>
       </c>
       <c r="K6" t="n">
-        <v>186707.455360521</v>
+        <v>186707.4553605207</v>
       </c>
       <c r="L6" t="n">
-        <v>139370.4314686199</v>
+        <v>139370.4314686202</v>
       </c>
       <c r="M6" t="n">
-        <v>6875.17997633238</v>
+        <v>6875.179976332074</v>
       </c>
       <c r="N6" t="n">
         <v>193176.0613061005</v>
       </c>
       <c r="O6" t="n">
+        <v>193176.0613061004</v>
+      </c>
+      <c r="P6" t="n">
         <v>193176.0613061005</v>
-      </c>
-      <c r="P6" t="n">
-        <v>193176.0613061011</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="F2" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J2" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="K2" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
         <v>97.68472022810495</v>
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>199.8679434165435</v>
+        <v>199.867943416545</v>
       </c>
       <c r="E3" t="n">
-        <v>1033.864942049761</v>
+        <v>1033.864942049762</v>
       </c>
       <c r="F3" t="n">
         <v>1033.864942049762</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26796,37 +26796,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>762.8845389744063</v>
+        <v>762.8845389744066</v>
       </c>
       <c r="F4" t="n">
-        <v>762.8845389744063</v>
+        <v>762.8845389744066</v>
       </c>
       <c r="G4" t="n">
-        <v>762.8845389744067</v>
+        <v>762.8845389744064</v>
       </c>
       <c r="H4" t="n">
-        <v>762.8845389744067</v>
+        <v>762.8845389744064</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>970.338830450016</v>
       </c>
       <c r="K4" t="n">
-        <v>970.3388304500162</v>
+        <v>970.3388304500161</v>
       </c>
       <c r="L4" t="n">
-        <v>970.3388304500162</v>
+        <v>970.3388304500161</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487596</v>
       </c>
       <c r="M2" t="n">
-        <v>38.51344036322891</v>
+        <v>38.51344036322904</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>199.8679434165435</v>
+        <v>199.867943416545</v>
       </c>
       <c r="E3" t="n">
-        <v>833.9969986332179</v>
+        <v>833.9969986332168</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>762.8845389744063</v>
+        <v>762.8845389744066</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>68.51691642788592</v>
+        <v>68.51691642788649</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9373750477233</v>
+        <v>138.9373750477231</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>623.9471639266829</v>
+        <v>623.9471639266832</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>762.8845389744063</v>
+        <v>762.8845389744066</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27871,37 +27871,37 @@
         <v>331.2460681438488</v>
       </c>
       <c r="I8" t="n">
-        <v>179.4993714254158</v>
+        <v>179.4993714254155</v>
       </c>
       <c r="J8" t="n">
-        <v>112.8507613606567</v>
+        <v>112.8507613606562</v>
       </c>
       <c r="K8" t="n">
-        <v>117.8830092062986</v>
+        <v>117.8830092062978</v>
       </c>
       <c r="L8" t="n">
-        <v>108.9697899219222</v>
+        <v>108.9697899219212</v>
       </c>
       <c r="M8" t="n">
-        <v>89.26055676721188</v>
+        <v>89.26055676721077</v>
       </c>
       <c r="N8" t="n">
-        <v>86.04447339087275</v>
+        <v>86.04447339087162</v>
       </c>
       <c r="O8" t="n">
-        <v>94.71931714500678</v>
+        <v>94.7193171450057</v>
       </c>
       <c r="P8" t="n">
-        <v>115.690241591538</v>
+        <v>115.6902415915371</v>
       </c>
       <c r="Q8" t="n">
-        <v>135.537893393552</v>
+        <v>135.5378933935513</v>
       </c>
       <c r="R8" t="n">
-        <v>165.113358113069</v>
+        <v>165.1133581130686</v>
       </c>
       <c r="S8" t="n">
-        <v>190.7105589908504</v>
+        <v>190.7105589908503</v>
       </c>
       <c r="T8" t="n">
         <v>219.5785755046101</v>
@@ -27947,37 +27947,37 @@
         <v>136.9136125302015</v>
       </c>
       <c r="H9" t="n">
-        <v>108.0834705440132</v>
+        <v>108.0834705440131</v>
       </c>
       <c r="I9" t="n">
-        <v>84.72083890735975</v>
+        <v>84.72083890735964</v>
       </c>
       <c r="J9" t="n">
-        <v>86.22106658048025</v>
+        <v>86.22106658047991</v>
       </c>
       <c r="K9" t="n">
-        <v>68.42126847655823</v>
+        <v>68.42126847655767</v>
       </c>
       <c r="L9" t="n">
-        <v>45.21039356444037</v>
+        <v>45.21039356443961</v>
       </c>
       <c r="M9" t="n">
-        <v>33.20600476000214</v>
+        <v>33.20600476000128</v>
       </c>
       <c r="N9" t="n">
-        <v>19.53068211486527</v>
+        <v>19.53068211486439</v>
       </c>
       <c r="O9" t="n">
-        <v>40.31099608107432</v>
+        <v>40.3109960810735</v>
       </c>
       <c r="P9" t="n">
-        <v>51.88147797593902</v>
+        <v>51.88147797593837</v>
       </c>
       <c r="Q9" t="n">
-        <v>85.1048247917283</v>
+        <v>85.10482479172785</v>
       </c>
       <c r="R9" t="n">
-        <v>118.9877057846754</v>
+        <v>118.9877057846752</v>
       </c>
       <c r="S9" t="n">
         <v>163.6978811003561</v>
@@ -28029,37 +28029,37 @@
         <v>159.0227323654497</v>
       </c>
       <c r="I10" t="n">
-        <v>144.611734651489</v>
+        <v>144.6117346514889</v>
       </c>
       <c r="J10" t="n">
-        <v>101.5138969156181</v>
+        <v>101.5138969156179</v>
       </c>
       <c r="K10" t="n">
-        <v>87.13928576293826</v>
+        <v>87.13928576293793</v>
       </c>
       <c r="L10" t="n">
-        <v>81.30040830362924</v>
+        <v>81.30040830362881</v>
       </c>
       <c r="M10" t="n">
-        <v>82.4286864339746</v>
+        <v>82.42868643397415</v>
       </c>
       <c r="N10" t="n">
-        <v>72.53182165325487</v>
+        <v>72.53182165325443</v>
       </c>
       <c r="O10" t="n">
-        <v>87.51314854626216</v>
+        <v>87.51314854626176</v>
       </c>
       <c r="P10" t="n">
-        <v>94.13713324236576</v>
+        <v>94.13713324236542</v>
       </c>
       <c r="Q10" t="n">
-        <v>121.3249421735478</v>
+        <v>121.3249421735475</v>
       </c>
       <c r="R10" t="n">
-        <v>161.0877053421166</v>
+        <v>161.0877053421165</v>
       </c>
       <c r="S10" t="n">
-        <v>217.7355021758327</v>
+        <v>217.7355021758326</v>
       </c>
       <c r="T10" t="n">
         <v>226.4056233068753</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="C11" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="D11" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="E11" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="F11" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="G11" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="H11" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="I11" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="T11" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="U11" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="V11" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="W11" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="X11" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.51344036322892</v>
+        <v>20.48599709752702</v>
       </c>
       <c r="C12" t="n">
-        <v>38.51344036322892</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>4.930410365520032</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>22.95785363122046</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28223,19 +28223,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>38.51344036322892</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>38.51344036322892</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>38.51344036322892</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>38.5134403632289</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="C13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="D13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="E13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="F13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="G13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="H13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="I13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="J13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="K13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="L13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="M13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="N13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="O13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="P13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="R13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="S13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="T13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="U13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="V13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="W13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="X13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="C14" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="D14" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="E14" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="F14" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="G14" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="H14" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="I14" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="T14" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="U14" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="V14" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="W14" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="X14" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
     </row>
     <row r="15">
@@ -28406,22 +28406,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>20.4859970975279</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="H15" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="I15" t="n">
         <v>22.95785363122047</v>
@@ -28457,7 +28457,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>20.4859970975275</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28466,13 +28466,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>38.51344036322892</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>38.51344036322892</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>38.51344036322892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="C16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="D16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="E16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="F16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="G16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="H16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="I16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="J16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="K16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="L16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="M16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="N16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="P16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="R16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="S16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="T16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="U16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="V16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="W16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="X16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.51344036322892</v>
+        <v>38.5134403632289</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I17" t="n">
-        <v>50.24240945634179</v>
+        <v>50.24240945634182</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="18">
@@ -28640,10 +28640,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>76.85503832233756</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>90.75836308184009</v>
       </c>
       <c r="I18" t="n">
-        <v>22.95785363122046</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28706,10 +28706,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>9.054528871718958</v>
       </c>
       <c r="Y18" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>89.45287313220442</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810496</v>
+        <v>89.45287313220578</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I20" t="n">
         <v>50.24240945634182</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="21">
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>76.85503832233844</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>76.85503832233827</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N22" t="n">
-        <v>89.45287313220527</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>97.68472022810496</v>
+        <v>89.45287313220578</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="24">
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68472022810496</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K25" t="n">
-        <v>76.32843350415965</v>
+        <v>77.66073332242706</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M25" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="C26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="D26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="E26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="F26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="G26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="H26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="I26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="J26" t="n">
+        <v>59.17127986487606</v>
+      </c>
+      <c r="K26" t="n">
         <v>59.17127986487458</v>
       </c>
-      <c r="K26" t="n">
-        <v>59.17127986487605</v>
-      </c>
       <c r="L26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="M26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="N26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="O26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="P26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="R26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="S26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="T26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="U26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="V26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="W26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="X26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Y26" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="C28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="D28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="E28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="F28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="G28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="H28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="I28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="J28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="K28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="L28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="M28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="N28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="O28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="P28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="R28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="S28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="T28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="U28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="V28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="W28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="X28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="C29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="D29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="E29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="F29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="G29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="H29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="I29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="J29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="K29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="L29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="M29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="N29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="O29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="P29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="R29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487424</v>
       </c>
       <c r="S29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="T29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="U29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="V29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="W29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="X29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="Y29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
     </row>
     <row r="30">
@@ -29639,7 +29639,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="C31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="D31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="E31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="F31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="G31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="H31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="I31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="J31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="K31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="L31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="M31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="N31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="O31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="P31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="R31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="S31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="T31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="U31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="V31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="W31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="X31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487608</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="C32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="D32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="E32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="F32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="G32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="H32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="I32" t="n">
-        <v>59.17127986487587</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="J32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="K32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="L32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="M32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="N32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="O32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="P32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="R32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="S32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="T32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="U32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="V32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="W32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="X32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="Y32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
     </row>
     <row r="33">
@@ -29879,7 +29879,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="C34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="D34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="E34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="F34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="G34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="H34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="I34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="J34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="K34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="L34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="M34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="N34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="O34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="P34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="R34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="S34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="T34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="U34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="V34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="W34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="X34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="Y34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487598</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30125,7 +30125,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810488</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L37" t="n">
-        <v>76.32843350416144</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810488</v>
+        <v>77.66073332242541</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N40" t="n">
-        <v>77.66073332242837</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810488</v>
+        <v>76.32843350416024</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30545,7 +30545,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810489</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810489</v>
+        <v>77.66073332242721</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>76.3284335041611</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="44">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30873,13 +30873,13 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J46" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="K46" t="n">
-        <v>86.41330088048474</v>
+        <v>76.32843350415996</v>
       </c>
       <c r="L46" t="n">
         <v>97.68472022810495</v>
@@ -30888,7 +30888,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>97.68472022810495</v>
       </c>
       <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>97.68472022810495</v>
-      </c>
-      <c r="R46" t="n">
-        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>97.68472022810495</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8034892197649982</v>
+        <v>0.8034892197650046</v>
       </c>
       <c r="H8" t="n">
-        <v>8.22873397191829</v>
+        <v>8.228733971918356</v>
       </c>
       <c r="I8" t="n">
-        <v>30.97651814499012</v>
+        <v>30.97651814499037</v>
       </c>
       <c r="J8" t="n">
-        <v>68.19514316602958</v>
+        <v>68.19514316603012</v>
       </c>
       <c r="K8" t="n">
-        <v>102.206841838682</v>
+        <v>102.2068418386828</v>
       </c>
       <c r="L8" t="n">
-        <v>126.7966250480651</v>
+        <v>126.7966250480661</v>
       </c>
       <c r="M8" t="n">
-        <v>141.0856764600609</v>
+        <v>141.085676460062</v>
       </c>
       <c r="N8" t="n">
-        <v>143.3685902057182</v>
+        <v>143.3685902057193</v>
       </c>
       <c r="O8" t="n">
-        <v>135.3788942766799</v>
+        <v>135.378894276681</v>
       </c>
       <c r="P8" t="n">
-        <v>115.5427541637315</v>
+        <v>115.5427541637325</v>
       </c>
       <c r="Q8" t="n">
-        <v>86.76779648089752</v>
+        <v>86.7677964808982</v>
       </c>
       <c r="R8" t="n">
-        <v>50.47217970106311</v>
+        <v>50.47217970106352</v>
       </c>
       <c r="S8" t="n">
-        <v>18.30951059539492</v>
+        <v>18.30951059539506</v>
       </c>
       <c r="T8" t="n">
-        <v>3.517274059521281</v>
+        <v>3.517274059521309</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06427913758119984</v>
+        <v>0.06427913758120035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.429904633009169</v>
+        <v>0.4299046330091724</v>
       </c>
       <c r="H9" t="n">
-        <v>4.15197369248329</v>
+        <v>4.151973692483323</v>
       </c>
       <c r="I9" t="n">
-        <v>14.80154109264025</v>
+        <v>14.80154109264037</v>
       </c>
       <c r="J9" t="n">
-        <v>40.61656008618645</v>
+        <v>40.61656008618677</v>
       </c>
       <c r="K9" t="n">
-        <v>69.42017049780077</v>
+        <v>69.42017049780132</v>
       </c>
       <c r="L9" t="n">
-        <v>93.34398621543382</v>
+        <v>93.34398621543457</v>
       </c>
       <c r="M9" t="n">
-        <v>108.9280291620162</v>
+        <v>108.928029162017</v>
       </c>
       <c r="N9" t="n">
-        <v>111.811029968468</v>
+        <v>111.8110299684689</v>
       </c>
       <c r="O9" t="n">
-        <v>102.2852483633701</v>
+        <v>102.2852483633709</v>
       </c>
       <c r="P9" t="n">
-        <v>82.09292943839122</v>
+        <v>82.09292943839188</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.87694929429322</v>
+        <v>54.87694929429366</v>
       </c>
       <c r="R9" t="n">
-        <v>26.69179817928859</v>
+        <v>26.6917981792888</v>
       </c>
       <c r="S9" t="n">
-        <v>7.985290003481707</v>
+        <v>7.985290003481771</v>
       </c>
       <c r="T9" t="n">
-        <v>1.732817358488711</v>
+        <v>1.732817358488725</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02828319954007692</v>
+        <v>0.02828319954007714</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3604176028822914</v>
+        <v>0.3604176028822943</v>
       </c>
       <c r="H10" t="n">
-        <v>3.20444014198983</v>
+        <v>3.204440141989855</v>
       </c>
       <c r="I10" t="n">
-        <v>10.83874027576928</v>
+        <v>10.83874027576936</v>
       </c>
       <c r="J10" t="n">
-        <v>25.481524523778</v>
+        <v>25.48152452377821</v>
       </c>
       <c r="K10" t="n">
-        <v>41.87397240759712</v>
+        <v>41.87397240759746</v>
       </c>
       <c r="L10" t="n">
-        <v>53.58426797760904</v>
+        <v>53.58426797760947</v>
       </c>
       <c r="M10" t="n">
-        <v>56.49709751363046</v>
+        <v>56.49709751363091</v>
       </c>
       <c r="N10" t="n">
-        <v>55.15372281197833</v>
+        <v>55.15372281197877</v>
       </c>
       <c r="O10" t="n">
-        <v>50.94338990558063</v>
+        <v>50.94338990558104</v>
       </c>
       <c r="P10" t="n">
-        <v>43.59087080678185</v>
+        <v>43.5908708067822</v>
       </c>
       <c r="Q10" t="n">
-        <v>30.18005945589806</v>
+        <v>30.1800594558983</v>
       </c>
       <c r="R10" t="n">
-        <v>16.20568603505285</v>
+        <v>16.20568603505297</v>
       </c>
       <c r="S10" t="n">
-        <v>6.281095861139567</v>
+        <v>6.281095861139618</v>
       </c>
       <c r="T10" t="n">
-        <v>1.539966121406154</v>
+        <v>1.539966121406166</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01965914197539774</v>
+        <v>0.01965914197539789</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.156240973064364</v>
+        <v>4.156240973064365</v>
       </c>
       <c r="H11" t="n">
-        <v>42.56510286539543</v>
+        <v>42.56510286539545</v>
       </c>
       <c r="I11" t="n">
-        <v>160.233480114064</v>
+        <v>160.2334801140641</v>
       </c>
       <c r="J11" t="n">
-        <v>352.7557572876219</v>
+        <v>352.755757287622</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6894376774366</v>
+        <v>528.6894376774368</v>
       </c>
       <c r="L11" t="n">
-        <v>655.8859973568552</v>
+        <v>655.8859973568555</v>
       </c>
       <c r="M11" t="n">
-        <v>729.7995477615885</v>
+        <v>729.7995477615889</v>
       </c>
       <c r="N11" t="n">
-        <v>741.6084674263077</v>
+        <v>741.608467426308</v>
       </c>
       <c r="O11" t="n">
-        <v>700.2798462503989</v>
+        <v>700.2798462503993</v>
       </c>
       <c r="P11" t="n">
-        <v>597.6726472278723</v>
+        <v>597.6726472278726</v>
       </c>
       <c r="Q11" t="n">
-        <v>448.8272673800046</v>
+        <v>448.8272673800049</v>
       </c>
       <c r="R11" t="n">
-        <v>261.0794720242546</v>
+        <v>261.0794720242547</v>
       </c>
       <c r="S11" t="n">
-        <v>94.71034117370429</v>
+        <v>94.71034117370434</v>
       </c>
       <c r="T11" t="n">
-        <v>18.19394485958926</v>
+        <v>18.19394485958927</v>
       </c>
       <c r="U11" t="n">
-        <v>0.332499277845149</v>
+        <v>0.3324992778451492</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.223784969691939</v>
+        <v>2.223784969691941</v>
       </c>
       <c r="H12" t="n">
         <v>21.47708115465637</v>
       </c>
       <c r="I12" t="n">
-        <v>76.56452636877951</v>
+        <v>76.56452636877954</v>
       </c>
       <c r="J12" t="n">
-        <v>210.0989124216407</v>
+        <v>210.0989124216408</v>
       </c>
       <c r="K12" t="n">
-        <v>359.0925053910006</v>
+        <v>359.0925053910008</v>
       </c>
       <c r="L12" t="n">
-        <v>482.8441882657872</v>
+        <v>482.8441882657874</v>
       </c>
       <c r="M12" t="n">
-        <v>563.4563934171199</v>
+        <v>563.4563934171201</v>
       </c>
       <c r="N12" t="n">
-        <v>578.3694075340453</v>
+        <v>578.3694075340455</v>
       </c>
       <c r="O12" t="n">
-        <v>529.0950142582396</v>
+        <v>529.0950142582399</v>
       </c>
       <c r="P12" t="n">
-        <v>424.6453947826652</v>
+        <v>424.6453947826654</v>
       </c>
       <c r="Q12" t="n">
-        <v>283.8642006926062</v>
+        <v>283.8642006926063</v>
       </c>
       <c r="R12" t="n">
-        <v>138.0697369778908</v>
+        <v>138.0697369778909</v>
       </c>
       <c r="S12" t="n">
-        <v>41.30583046774279</v>
+        <v>41.30583046774282</v>
       </c>
       <c r="T12" t="n">
-        <v>8.963413978714437</v>
+        <v>8.96341397871444</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1463016427428908</v>
+        <v>0.1463016427428909</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.864346616811045</v>
+        <v>1.864346616811046</v>
       </c>
       <c r="H13" t="n">
         <v>16.57573628401094</v>
       </c>
       <c r="I13" t="n">
-        <v>56.06598734919035</v>
+        <v>56.06598734919037</v>
       </c>
       <c r="J13" t="n">
         <v>131.8093058085409</v>
       </c>
       <c r="K13" t="n">
-        <v>216.6031796622286</v>
+        <v>216.6031796622287</v>
       </c>
       <c r="L13" t="n">
-        <v>277.1774961029803</v>
+        <v>277.1774961029804</v>
       </c>
       <c r="M13" t="n">
-        <v>292.2448064879349</v>
+        <v>292.2448064879351</v>
       </c>
       <c r="N13" t="n">
-        <v>285.2958781889122</v>
+        <v>285.2958781889123</v>
       </c>
       <c r="O13" t="n">
-        <v>263.5169199834376</v>
+        <v>263.5169199834377</v>
       </c>
       <c r="P13" t="n">
-        <v>225.4842490004921</v>
+        <v>225.4842490004922</v>
       </c>
       <c r="Q13" t="n">
         <v>156.113606249514</v>
       </c>
       <c r="R13" t="n">
-        <v>83.82780333406751</v>
+        <v>83.82780333406754</v>
       </c>
       <c r="S13" t="n">
-        <v>32.49047694933429</v>
+        <v>32.4904769493343</v>
       </c>
       <c r="T13" t="n">
-        <v>7.965844635465372</v>
+        <v>7.965844635465375</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1016916336442389</v>
+        <v>0.101691633644239</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>4.156240973064365</v>
       </c>
       <c r="H17" t="n">
-        <v>42.56510286539545</v>
+        <v>42.56510286539544</v>
       </c>
       <c r="I17" t="n">
         <v>160.2334801140641</v>
@@ -32236,31 +32236,31 @@
         <v>352.755757287622</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6894376774368</v>
+        <v>528.6894376774367</v>
       </c>
       <c r="L17" t="n">
-        <v>655.8859973568555</v>
+        <v>655.8859973568553</v>
       </c>
       <c r="M17" t="n">
-        <v>729.7995477615889</v>
+        <v>729.7995477615887</v>
       </c>
       <c r="N17" t="n">
-        <v>741.608467426308</v>
+        <v>741.6084674263079</v>
       </c>
       <c r="O17" t="n">
-        <v>700.2798462503993</v>
+        <v>700.279846250399</v>
       </c>
       <c r="P17" t="n">
-        <v>597.6726472278726</v>
+        <v>597.6726472278725</v>
       </c>
       <c r="Q17" t="n">
-        <v>448.8272673800049</v>
+        <v>448.8272673800047</v>
       </c>
       <c r="R17" t="n">
-        <v>261.0794720242547</v>
+        <v>261.0794720242546</v>
       </c>
       <c r="S17" t="n">
-        <v>94.71034117370434</v>
+        <v>94.71034117370431</v>
       </c>
       <c r="T17" t="n">
         <v>18.19394485958927</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.223784969691941</v>
+        <v>2.22378496969194</v>
       </c>
       <c r="H18" t="n">
         <v>21.47708115465637</v>
       </c>
       <c r="I18" t="n">
-        <v>76.56452636877954</v>
+        <v>76.56452636877953</v>
       </c>
       <c r="J18" t="n">
-        <v>210.0989124216408</v>
+        <v>210.0989124216407</v>
       </c>
       <c r="K18" t="n">
-        <v>359.0925053910008</v>
+        <v>359.0925053910007</v>
       </c>
       <c r="L18" t="n">
-        <v>482.8441882657874</v>
+        <v>482.8441882657873</v>
       </c>
       <c r="M18" t="n">
-        <v>563.4563934171201</v>
+        <v>563.45639341712</v>
       </c>
       <c r="N18" t="n">
-        <v>578.3694075340455</v>
+        <v>578.3694075340454</v>
       </c>
       <c r="O18" t="n">
-        <v>529.0950142582399</v>
+        <v>529.0950142582398</v>
       </c>
       <c r="P18" t="n">
-        <v>424.6453947826654</v>
+        <v>424.6453947826653</v>
       </c>
       <c r="Q18" t="n">
         <v>283.8642006926063</v>
@@ -32339,13 +32339,13 @@
         <v>138.0697369778909</v>
       </c>
       <c r="S18" t="n">
-        <v>41.30583046774282</v>
+        <v>41.30583046774281</v>
       </c>
       <c r="T18" t="n">
-        <v>8.96341397871444</v>
+        <v>8.963413978714438</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1463016427428909</v>
+        <v>0.1463016427428908</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.864346616811046</v>
+        <v>1.864346616811045</v>
       </c>
       <c r="H19" t="n">
         <v>16.57573628401094</v>
       </c>
       <c r="I19" t="n">
-        <v>56.06598734919037</v>
+        <v>56.06598734919036</v>
       </c>
       <c r="J19" t="n">
         <v>131.8093058085409</v>
@@ -32397,13 +32397,13 @@
         <v>216.6031796622287</v>
       </c>
       <c r="L19" t="n">
-        <v>277.1774961029804</v>
+        <v>277.1774961029803</v>
       </c>
       <c r="M19" t="n">
-        <v>292.2448064879351</v>
+        <v>292.244806487935</v>
       </c>
       <c r="N19" t="n">
-        <v>285.2958781889123</v>
+        <v>285.2958781889122</v>
       </c>
       <c r="O19" t="n">
         <v>263.5169199834377</v>
@@ -32415,16 +32415,16 @@
         <v>156.113606249514</v>
       </c>
       <c r="R19" t="n">
-        <v>83.82780333406754</v>
+        <v>83.82780333406753</v>
       </c>
       <c r="S19" t="n">
-        <v>32.4904769493343</v>
+        <v>32.49047694933429</v>
       </c>
       <c r="T19" t="n">
-        <v>7.965844635465375</v>
+        <v>7.965844635465373</v>
       </c>
       <c r="U19" t="n">
-        <v>0.101691633644239</v>
+        <v>0.1016916336442389</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34366,7 +34366,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>171.7098527609356</v>
+        <v>171.7098527609357</v>
       </c>
       <c r="K11" t="n">
-        <v>308.599586632456</v>
+        <v>308.5995866324562</v>
       </c>
       <c r="L11" t="n">
-        <v>420.119582386868</v>
+        <v>420.1195823868682</v>
       </c>
       <c r="M11" t="n">
-        <v>499.4533145343158</v>
+        <v>499.4533145343162</v>
       </c>
       <c r="N11" t="n">
-        <v>512.1954038297167</v>
+        <v>512.1954038297172</v>
       </c>
       <c r="O11" t="n">
-        <v>470.1816348287122</v>
+        <v>470.1816348287125</v>
       </c>
       <c r="P11" t="n">
-        <v>366.4396514726027</v>
+        <v>366.4396514726031</v>
       </c>
       <c r="Q11" t="n">
-        <v>226.5215775055551</v>
+        <v>226.5215775055554</v>
       </c>
       <c r="R11" t="n">
-        <v>45.49393421012246</v>
+        <v>45.49393421012257</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>83.26128575497398</v>
+        <v>83.2612857549741</v>
       </c>
       <c r="K12" t="n">
-        <v>221.2510664166416</v>
+        <v>221.2510664166418</v>
       </c>
       <c r="L12" t="n">
-        <v>344.289808485913</v>
+        <v>344.2898084859132</v>
       </c>
       <c r="M12" t="n">
-        <v>421.3223594951016</v>
+        <v>421.3223594951018</v>
       </c>
       <c r="N12" t="n">
-        <v>447.027695450712</v>
+        <v>447.0276954507123</v>
       </c>
       <c r="O12" t="n">
-        <v>386.4987698137952</v>
+        <v>386.4987698137954</v>
       </c>
       <c r="P12" t="n">
-        <v>290.670987368335</v>
+        <v>290.6709873683351</v>
       </c>
       <c r="Q12" t="n">
-        <v>143.8824266065847</v>
+        <v>143.8824266065848</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>76.963566055097</v>
+        <v>76.96356605509705</v>
       </c>
       <c r="K13" t="n">
         <v>232.8471281995747</v>
       </c>
       <c r="L13" t="n">
-        <v>343.2809617265253</v>
+        <v>343.2809617265254</v>
       </c>
       <c r="M13" t="n">
-        <v>370.3421238130044</v>
+        <v>370.3421238130045</v>
       </c>
       <c r="N13" t="n">
-        <v>367.9414909313697</v>
+        <v>367.9414909313698</v>
       </c>
       <c r="O13" t="n">
-        <v>326.6154882607062</v>
+        <v>326.6154882607063</v>
       </c>
       <c r="P13" t="n">
-        <v>261.2762486286145</v>
+        <v>261.2762486286146</v>
       </c>
       <c r="Q13" t="n">
         <v>108.4650033610485</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>76.96356605509703</v>
+        <v>76.96356605509702</v>
       </c>
       <c r="K16" t="n">
         <v>232.8471281995747</v>
@@ -35811,13 +35811,13 @@
         <v>343.2809617265254</v>
       </c>
       <c r="M16" t="n">
-        <v>370.3421238130045</v>
+        <v>370.3421238130044</v>
       </c>
       <c r="N16" t="n">
-        <v>367.9414909313698</v>
+        <v>367.9414909313697</v>
       </c>
       <c r="O16" t="n">
-        <v>326.6154882607063</v>
+        <v>326.6154882607062</v>
       </c>
       <c r="P16" t="n">
         <v>261.2762486286146</v>
@@ -35884,28 +35884,28 @@
         <v>171.7098527609357</v>
       </c>
       <c r="K17" t="n">
-        <v>308.5995866324562</v>
+        <v>308.5995866324561</v>
       </c>
       <c r="L17" t="n">
-        <v>420.1195823868682</v>
+        <v>420.1195823868681</v>
       </c>
       <c r="M17" t="n">
-        <v>499.4533145343162</v>
+        <v>499.453314534316</v>
       </c>
       <c r="N17" t="n">
-        <v>512.1954038297172</v>
+        <v>512.195403829717</v>
       </c>
       <c r="O17" t="n">
-        <v>470.1816348287125</v>
+        <v>470.1816348287123</v>
       </c>
       <c r="P17" t="n">
-        <v>366.4396514726031</v>
+        <v>366.439651472603</v>
       </c>
       <c r="Q17" t="n">
-        <v>226.5215775055554</v>
+        <v>226.5215775055553</v>
       </c>
       <c r="R17" t="n">
-        <v>45.49393421012257</v>
+        <v>45.49393421012252</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>83.2612857549741</v>
+        <v>83.26128575497404</v>
       </c>
       <c r="K18" t="n">
-        <v>221.2510664166418</v>
+        <v>221.2510664166417</v>
       </c>
       <c r="L18" t="n">
-        <v>344.2898084859132</v>
+        <v>344.2898084859131</v>
       </c>
       <c r="M18" t="n">
-        <v>421.3223594951018</v>
+        <v>421.3223594951017</v>
       </c>
       <c r="N18" t="n">
-        <v>447.0276954507123</v>
+        <v>447.0276954507121</v>
       </c>
       <c r="O18" t="n">
-        <v>386.4987698137954</v>
+        <v>386.4987698137953</v>
       </c>
       <c r="P18" t="n">
         <v>290.6709873683351</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>102.4986045972498</v>
+        <v>102.4986045972497</v>
       </c>
       <c r="K19" t="n">
-        <v>185.2746417197983</v>
+        <v>87.58992149169327</v>
       </c>
       <c r="L19" t="n">
-        <v>231.7456929539465</v>
+        <v>239.977540049847</v>
       </c>
       <c r="M19" t="n">
-        <v>251.003742768435</v>
+        <v>251.0037427684348</v>
       </c>
       <c r="N19" t="n">
-        <v>255.2950539517841</v>
+        <v>255.295053951784</v>
       </c>
       <c r="O19" t="n">
-        <v>222.7451017596999</v>
+        <v>214.5132546638007</v>
       </c>
       <c r="P19" t="n">
-        <v>87.75624495134457</v>
+        <v>185.4409651794495</v>
       </c>
       <c r="Q19" t="n">
         <v>102.2933248481731</v>
       </c>
       <c r="R19" t="n">
-        <v>4.219132185003019</v>
+        <v>4.219132185002991</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>102.4986045972498</v>
+        <v>102.4986045972497</v>
       </c>
       <c r="K22" t="n">
         <v>185.2746417197982</v>
@@ -36285,22 +36285,22 @@
         <v>239.977540049847</v>
       </c>
       <c r="M22" t="n">
-        <v>251.0037427684349</v>
+        <v>251.0037427684348</v>
       </c>
       <c r="N22" t="n">
-        <v>247.0632068558843</v>
+        <v>157.610333723679</v>
       </c>
       <c r="O22" t="n">
-        <v>222.7451017596998</v>
+        <v>214.5132546638007</v>
       </c>
       <c r="P22" t="n">
-        <v>87.75624495134454</v>
+        <v>185.4409651794495</v>
       </c>
       <c r="Q22" t="n">
         <v>102.2933248481731</v>
       </c>
       <c r="R22" t="n">
-        <v>4.219132185003005</v>
+        <v>4.219132185002991</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36510,19 +36510,19 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.332299818266868</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K25" t="n">
-        <v>175.6323267038267</v>
+        <v>176.9646265220941</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M25" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N25" t="n">
         <v>173.0392293230783</v>
@@ -36534,10 +36534,10 @@
         <v>197.6352280591743</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057635</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>17.5943500919501</v>
       </c>
       <c r="J26" t="n">
-        <v>249.9582808335871</v>
+        <v>249.9582808335886</v>
       </c>
       <c r="K26" t="n">
-        <v>396.3625664202766</v>
+        <v>396.3625664202751</v>
       </c>
       <c r="L26" t="n">
         <v>514.7613942572082</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>104.7496964779423</v>
+        <v>71.11345515521894</v>
       </c>
       <c r="K28" t="n">
         <v>265.2189394091956</v>
       </c>
       <c r="L28" t="n">
-        <v>378.9286520350742</v>
+        <v>294.405018601499</v>
       </c>
       <c r="M28" t="n">
-        <v>406.8046592583599</v>
+        <v>228.2949983489142</v>
       </c>
       <c r="N28" t="n">
-        <v>232.2105091879544</v>
+        <v>404.0282260324161</v>
       </c>
       <c r="O28" t="n">
-        <v>236.6725912662337</v>
+        <v>361.5244100875158</v>
       </c>
       <c r="P28" t="n">
         <v>294.1283510099865</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>17.59435009195005</v>
+        <v>17.59435009195016</v>
       </c>
       <c r="J29" t="n">
-        <v>249.9582808335886</v>
+        <v>249.9582808335888</v>
       </c>
       <c r="K29" t="n">
-        <v>396.3625664202765</v>
+        <v>396.3625664202767</v>
       </c>
       <c r="L29" t="n">
-        <v>514.7613942572082</v>
+        <v>514.7613942572084</v>
       </c>
       <c r="M29" t="n">
-        <v>598.0923956951027</v>
+        <v>598.0923956951029</v>
       </c>
       <c r="N29" t="n">
-        <v>611.4731152777874</v>
+        <v>611.4731152777877</v>
       </c>
       <c r="O29" t="n">
-        <v>567.2242807530952</v>
+        <v>567.2242807530954</v>
       </c>
       <c r="P29" t="n">
-        <v>457.9332660842479</v>
+        <v>457.9332660842481</v>
       </c>
       <c r="Q29" t="n">
-        <v>309.9655846685955</v>
+        <v>309.9655846685957</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7844784071008</v>
+        <v>118.7844784070991</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>104.7496964779422</v>
+        <v>104.7496964779423</v>
       </c>
       <c r="K31" t="n">
-        <v>158.475173064543</v>
+        <v>265.2189394091957</v>
       </c>
       <c r="L31" t="n">
-        <v>378.9286520350742</v>
+        <v>260.7687772787745</v>
       </c>
       <c r="M31" t="n">
-        <v>228.2949983489142</v>
+        <v>228.2949983489143</v>
       </c>
       <c r="N31" t="n">
-        <v>404.0282260324161</v>
+        <v>404.0282260324162</v>
       </c>
       <c r="O31" t="n">
-        <v>361.5244100875158</v>
+        <v>361.5244100875159</v>
       </c>
       <c r="P31" t="n">
-        <v>282.7122425983421</v>
+        <v>294.1283510099865</v>
       </c>
       <c r="Q31" t="n">
-        <v>137.5655184027696</v>
+        <v>137.5655184027698</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>17.59435009194992</v>
+        <v>17.59435009195002</v>
       </c>
       <c r="J32" t="n">
         <v>249.9582808335885</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37227,22 +37227,22 @@
         <v>104.7496964779422</v>
       </c>
       <c r="K34" t="n">
-        <v>265.2189394091955</v>
+        <v>265.2189394091956</v>
       </c>
       <c r="L34" t="n">
         <v>378.9286520350741</v>
       </c>
       <c r="M34" t="n">
-        <v>273.1767899585006</v>
+        <v>228.2949983489142</v>
       </c>
       <c r="N34" t="n">
         <v>404.0282260324161</v>
       </c>
       <c r="O34" t="n">
-        <v>198.4827437216333</v>
+        <v>361.5244100875158</v>
       </c>
       <c r="P34" t="n">
-        <v>294.1283510099864</v>
+        <v>175.96847625369</v>
       </c>
       <c r="Q34" t="n">
         <v>137.5655184027696</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266783</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K37" t="n">
-        <v>196.9886134277719</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L37" t="n">
-        <v>233.6111041328051</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N37" t="n">
         <v>173.0392293230783</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591742</v>
+        <v>177.6112411534947</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057549</v>
+        <v>8.752567558057692</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37695,13 +37695,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K40" t="n">
-        <v>196.9886134277719</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
         <v>254.9673908567486</v>
@@ -37710,19 +37710,19 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>250.6999626455067</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O40" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591742</v>
+        <v>176.2789413352296</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057549</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266797</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>109.6268955184478</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>176.9646265220942</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591742</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.3797136643033</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057564</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38169,13 +38169,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J46" t="n">
         <v>109.6268955184478</v>
       </c>
       <c r="K46" t="n">
-        <v>185.7171940801518</v>
+        <v>175.632326703827</v>
       </c>
       <c r="L46" t="n">
         <v>254.9673908567486</v>
@@ -38184,7 +38184,7 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O46" t="n">
         <v>139.3114638567573</v>
@@ -38193,10 +38193,10 @@
         <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882471</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
